--- a/Packages/cn.etetet.startconfig/Luban/Moba/Datas/StartScene.xlsx
+++ b/Packages/cn.etetet.startconfig/Luban/Moba/Datas/StartScene.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.startconfig/Luban/Moba/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54150CAC-5169-7144-8F61-40662EBF4CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B01DAE-9B7D-D149-9644-C21850276823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17680" yWindow="2760" windowWidth="27840" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10560" yWindow="2800" windowWidth="27840" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>##var</t>
   </si>
@@ -109,6 +109,10 @@
   </si>
   <si>
     <t>Gate</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Match</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -530,7 +534,7 @@
   <dimension ref="A1:CTZ11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="B4:E11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -8436,10 +8440,10 @@
         <v>1</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G10" s="6"/>
     </row>
